--- a/Building Data/FDC_1min_21AUG2023.xlsx
+++ b/Building Data/FDC_1min_21AUG2023.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SOE-VLAB4\microgrid\Experimental Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ustugrid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5445A4-6EEA-498C-8C15-9B8BE02DF013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE23C89-FED9-463A-9DD7-C81C87FBF1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28215" windowHeight="15840"/>
+    <workbookView xWindow="11730" yWindow="5700" windowWidth="23370" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDC_1Min_2023821" sheetId="1" r:id="rId1"/>
+    <sheet name="August Power Output" sheetId="2" r:id="rId2"/>
+    <sheet name="Line to Line Voltage" sheetId="3" r:id="rId3"/>
+    <sheet name="Output vs. Reactive Power" sheetId="5" r:id="rId4"/>
+    <sheet name="Summary Statistics" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -4366,7 +4370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4905,10 +4909,230 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50063</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACDE508D-8CBE-30B8-6898-B5D027A01C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="12213488" cy="6858000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>606028</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8746529E-3704-E9F8-9557-825010033E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12798028" cy="7181850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA2C02D-4DD5-FE4B-C08C-DF44EDA2C816}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12592050" cy="6814372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>531264</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA018B4-6431-D7F6-8928-2FEADB517890}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15771264" cy="3009900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4946,7 +5170,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5052,7 +5276,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5194,19 +5418,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G1441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38365,4 +38589,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D7B06-66A3-4D9B-9F7F-521F52A39D37}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B625327-171E-42BE-9279-EA0EC3980753}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F343AF06-AAE9-460F-A9E5-414BABEF8D82}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BE34E6-9F7E-4412-8037-94B83057FE36}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Building Data/FDC_1min_21AUG2023.xlsx
+++ b/Building Data/FDC_1min_21AUG2023.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ustugrid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lore3652\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE23C89-FED9-463A-9DD7-C81C87FBF1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1CE3F-7419-4265-A920-BF13AA2DF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11730" yWindow="5700" windowWidth="23370" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FDC_1Min_2023821" sheetId="1" r:id="rId1"/>
-    <sheet name="August Power Output" sheetId="2" r:id="rId2"/>
-    <sheet name="Line to Line Voltage" sheetId="3" r:id="rId3"/>
-    <sheet name="Output vs. Reactive Power" sheetId="5" r:id="rId4"/>
-    <sheet name="Summary Statistics" sheetId="4" r:id="rId5"/>
+    <sheet name="ReadMe" sheetId="6" r:id="rId1"/>
+    <sheet name="FDC_1Min_2023821" sheetId="1" r:id="rId2"/>
+    <sheet name="August Power Output" sheetId="2" r:id="rId3"/>
+    <sheet name="Line to Line Voltage" sheetId="3" r:id="rId4"/>
+    <sheet name="Output vs. Reactive Power" sheetId="5" r:id="rId5"/>
+    <sheet name="Summary Statistics" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1453">
   <si>
     <t>DT#2023-08-21-00:00:01</t>
   </si>
@@ -4365,6 +4366,24 @@
   </si>
   <si>
     <t>Total Power Factor</t>
+  </si>
+  <si>
+    <t>Source: Center for Microgrid Research at the University of St. Thomas</t>
+  </si>
+  <si>
+    <t>License: CC BY-NC-SA 4.0</t>
+  </si>
+  <si>
+    <t>License Details: https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Acknowledgement</t>
+  </si>
+  <si>
+    <t>This project was made possible in whole or in part by a grant from the Minnesota Department of Commerce through the Minnesota Renewable Development Account, which is financed by Xcel Energy ratepayers. CMR sincerely thanks the Minnesota Department of Commerce, the Minnesota State Legislature, and Xcel Energy for their invaluable support in establishing the Center for Microgrid Research. Their contributions have been instrumental in advancing microgrid research and this data collection.</t>
+  </si>
+  <si>
+    <t>Data Title: FDC One Minute Data 21AUG2023</t>
   </si>
 </sst>
 </file>
@@ -4848,9 +4867,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5425,6 +5447,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8956E034-9C9C-483B-8A7A-6E45F6EC3C6B}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G1441"/>
@@ -38591,7 +38661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83D7B06-66A3-4D9B-9F7F-521F52A39D37}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38606,7 +38676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B625327-171E-42BE-9279-EA0EC3980753}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38621,7 +38691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F343AF06-AAE9-460F-A9E5-414BABEF8D82}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -38636,11 +38706,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BE34E6-9F7E-4412-8037-94B83057FE36}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>

--- a/Building Data/FDC_1min_21AUG2023.xlsx
+++ b/Building Data/FDC_1min_21AUG2023.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lore3652\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ustugrid\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C1CE3F-7419-4265-A920-BF13AA2DF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439DC2A8-28A6-4FF7-B54F-4C3614F5D2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ReadMe" sheetId="6" r:id="rId1"/>
+    <sheet name="README" sheetId="6" r:id="rId1"/>
     <sheet name="FDC_1Min_2023821" sheetId="1" r:id="rId2"/>
     <sheet name="August Power Output" sheetId="2" r:id="rId3"/>
     <sheet name="Line to Line Voltage" sheetId="3" r:id="rId4"/>
@@ -4383,7 +4383,7 @@
     <t>This project was made possible in whole or in part by a grant from the Minnesota Department of Commerce through the Minnesota Renewable Development Account, which is financed by Xcel Energy ratepayers. CMR sincerely thanks the Minnesota Department of Commerce, the Minnesota State Legislature, and Xcel Energy for their invaluable support in establishing the Center for Microgrid Research. Their contributions have been instrumental in advancing microgrid research and this data collection.</t>
   </si>
   <si>
-    <t>Data Title: FDC One Minute Data 21AUG2023</t>
+    <t>Data Title: FDC_1min_21AUG2023</t>
   </si>
 </sst>
 </file>
@@ -5447,16 +5447,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8956E034-9C9C-483B-8A7A-6E45F6EC3C6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6158AA4A-6DC2-41B6-91A5-A36D6656013B}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="66" customWidth="1"/>
+    <col min="1" max="1" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -5484,7 +5484,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1451</v>
       </c>
